--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,26 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\Python_Scripts\Plane_ticket_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E3848-74D7-4A8D-852C-116146D81462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C2713D-A6A2-42D6-A9C2-810EB72BF7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13215" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="8">
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>City_from</t>
+  </si>
+  <si>
+    <t>City_to</t>
+  </si>
+  <si>
+    <t>CNF</t>
+  </si>
+  <si>
+    <t>SDU</t>
+  </si>
+  <si>
+    <t>perna</t>
+  </si>
+  <si>
+    <t>ida</t>
+  </si>
+  <si>
+    <t>volta</t>
   </si>
 </sst>
 </file>
@@ -63,9 +92,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,26 +379,1482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3">
+        <v>44751.940891203703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44826</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f>A2+7</f>
+        <v>44781</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f>A3+7</f>
+        <v>44782</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f>A4+7</f>
+        <v>44788</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f>A5+7</f>
+        <v>44789</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A72" si="0">A6+7</f>
+        <v>44795</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>44796</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>44802</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>44803</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>44809</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>44810</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>44816</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>44817</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>44823</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>44824</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>44830</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>44831</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>44837</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>44838</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>44844</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>44845</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>44851</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>44852</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>44858</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>44859</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>44865</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>44872</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>44873</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>44879</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>44880</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>44886</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>44887</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>44893</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>44894</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>44900</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>44901</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>44907</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>44908</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>44914</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>44915</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>44921</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44922</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44928</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>44929</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>44935</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>44936</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>44942</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>44943</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>44949</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>44950</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>44956</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>44957</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>44963</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>44964</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>44970</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>44971</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>44977</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>44978</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>44984</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>44985</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>44991</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>44992</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>44998</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>44999</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <f t="shared" si="0"/>
+        <v>45005</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <f t="shared" si="0"/>
+        <v>45006</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <f t="shared" si="0"/>
+        <v>45012</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <f t="shared" si="0"/>
+        <v>45013</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <f t="shared" si="0"/>
+        <v>45019</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <f t="shared" ref="A73:A96" si="1">A71+7</f>
+        <v>45020</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>45026</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>45027</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>45033</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>45034</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>45040</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>45041</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>45047</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>45048</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>45054</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>45055</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>45061</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>45062</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>45068</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>45069</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>45075</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>45076</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>45082</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>45083</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>45089</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>45090</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>45096</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>45097</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>45103</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\Python_Scripts\Plane_ticket_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C2713D-A6A2-42D6-A9C2-810EB72BF7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCC2BD-7498-4EBF-AE93-2B538422C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1272" yWindow="1056" windowWidth="17304" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3">
-        <v>44751.940891203703</v>
+        <v>44752.590358796297</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -530,6 +530,9 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -545,6 +548,9 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E9">
+        <v>228</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -560,6 +566,9 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -575,6 +584,9 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E11">
+        <v>471</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -590,6 +602,9 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E12">
+        <v>467</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -605,6 +620,9 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E13">
+        <v>396</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -620,6 +638,9 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E14">
+        <v>281</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -635,6 +656,9 @@
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E15">
+        <v>459</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -650,8 +674,11 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>44824</v>
@@ -665,8 +692,11 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>44830</v>
@@ -680,8 +710,11 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>44831</v>
@@ -695,8 +728,11 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>44837</v>
@@ -710,8 +746,11 @@
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>44838</v>
@@ -725,8 +764,11 @@
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>44844</v>
@@ -740,8 +782,11 @@
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>44845</v>
@@ -755,8 +800,11 @@
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>44851</v>
@@ -770,8 +818,11 @@
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>44852</v>
@@ -785,8 +836,11 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>44858</v>
@@ -800,8 +854,11 @@
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>44859</v>
@@ -815,8 +872,11 @@
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>44865</v>
@@ -830,8 +890,11 @@
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -845,8 +908,11 @@
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>44872</v>
@@ -860,8 +926,11 @@
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>44873</v>
@@ -875,8 +944,11 @@
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>44879</v>
@@ -890,8 +962,11 @@
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>44880</v>
@@ -905,8 +980,11 @@
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>44886</v>
@@ -920,8 +998,11 @@
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>44887</v>
@@ -935,8 +1016,11 @@
       <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>44893</v>
@@ -950,8 +1034,11 @@
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>44894</v>
@@ -965,8 +1052,11 @@
       <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>44900</v>
@@ -980,8 +1070,11 @@
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>44901</v>
@@ -995,8 +1088,11 @@
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>44907</v>
@@ -1010,8 +1106,11 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>44908</v>
@@ -1025,8 +1124,11 @@
       <c r="D41" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>44914</v>
@@ -1040,8 +1142,11 @@
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>44915</v>
@@ -1055,8 +1160,11 @@
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>44921</v>
@@ -1070,8 +1178,11 @@
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>44922</v>
@@ -1085,8 +1196,11 @@
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>44928</v>
@@ -1100,8 +1214,11 @@
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>44929</v>
@@ -1115,8 +1232,11 @@
       <c r="D47" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>44935</v>
@@ -1130,8 +1250,11 @@
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>44936</v>
@@ -1145,8 +1268,11 @@
       <c r="D49" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>44942</v>
@@ -1161,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>44943</v>
@@ -1176,7 +1302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>44949</v>
@@ -1191,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>44950</v>
@@ -1206,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>44956</v>
@@ -1221,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>44957</v>
@@ -1236,7 +1362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>44963</v>
@@ -1251,7 +1377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>44964</v>
@@ -1266,7 +1392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>44970</v>
@@ -1281,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>44971</v>
@@ -1296,7 +1422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>44977</v>
@@ -1311,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>44978</v>
@@ -1326,7 +1452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>44984</v>
@@ -1341,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>44985</v>
@@ -1356,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>44991</v>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hr77\Plane_ticket_scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\Python_Scripts\Plane_ticket_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF20C50-66E0-4075-B5D8-D15AAC0E4804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F8D53C-198F-4236-8038-84881CFB4238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17550" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="8">
   <si>
     <t>Data</t>
   </si>
@@ -384,7 +384,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,10 +409,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="3">
-        <v>44757.741076388891</v>
+        <v>44758.952094907407</v>
       </c>
       <c r="F1" s="3">
-        <v>44757.7500462963</v>
+        <v>44758.947175925925</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -429,7 +429,10 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>487</v>
+        <v>443</v>
+      </c>
+      <c r="F2">
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -446,12 +449,16 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>450</v>
+        <v>443</v>
+      </c>
+      <c r="F3">
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44776</v>
+        <f>A2+7</f>
+        <v>44781</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -461,11 +468,18 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E4">
+        <v>448</v>
+      </c>
+      <c r="F4">
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44777</v>
+        <f>A3+7</f>
+        <v>44782</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -475,11 +489,18 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E5">
+        <v>194</v>
+      </c>
+      <c r="F5">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44778</v>
+        <f>A4+7</f>
+        <v>44788</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -489,11 +510,18 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E6">
+        <v>194</v>
+      </c>
+      <c r="F6">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44779</v>
+        <f>A5+7</f>
+        <v>44789</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -503,11 +531,18 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E7">
+        <v>194</v>
+      </c>
+      <c r="F7">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44780</v>
+        <f t="shared" ref="A8:A71" si="0">A6+7</f>
+        <v>44795</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -517,11 +552,15 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E8">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44781</v>
+        <f t="shared" si="0"/>
+        <v>44796</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -531,11 +570,15 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E9">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44782</v>
+        <f t="shared" si="0"/>
+        <v>44802</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -545,11 +588,15 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E10">
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44783</v>
+        <f t="shared" si="0"/>
+        <v>44803</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -559,11 +606,15 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E11">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44784</v>
+        <f t="shared" si="0"/>
+        <v>44809</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -573,11 +624,18 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E12">
+        <v>194</v>
+      </c>
+      <c r="F12">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44785</v>
+        <f t="shared" si="0"/>
+        <v>44810</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -587,11 +645,18 @@
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E13">
+        <v>194</v>
+      </c>
+      <c r="F13">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44786</v>
+        <f t="shared" si="0"/>
+        <v>44816</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -601,11 +666,15 @@
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E14">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44787</v>
+        <f t="shared" si="0"/>
+        <v>44817</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -615,11 +684,15 @@
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E15">
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44788</v>
+        <f t="shared" si="0"/>
+        <v>44823</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -630,10 +703,17 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>199</v>
+      </c>
+      <c r="F16">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44789</v>
+        <f t="shared" si="0"/>
+        <v>44824</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -644,485 +724,1512 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>44830</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>395</v>
+      </c>
+      <c r="F18">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>44831</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>270</v>
+      </c>
+      <c r="F19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>44837</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>44838</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>44844</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>768</v>
+      </c>
+      <c r="F22">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>44845</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>44851</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>44852</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>44858</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>44859</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>44865</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>197</v>
+      </c>
+      <c r="F28">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>198</v>
+      </c>
+      <c r="F29">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>44872</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>44873</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>44879</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>44880</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>44886</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>197</v>
+      </c>
+      <c r="F34">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>44887</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>44893</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>197</v>
+      </c>
+      <c r="F36">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>44894</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>44900</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>238</v>
+      </c>
+      <c r="F38">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>44901</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>44907</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>488</v>
+      </c>
+      <c r="F40">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>44908</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>44914</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>1096</v>
+      </c>
+      <c r="F42">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>44915</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>44921</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>1096</v>
+      </c>
+      <c r="F44">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44922</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44928</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>1096</v>
+      </c>
+      <c r="F46">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>44929</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>44935</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>44936</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>44942</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>44943</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>44949</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>44950</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>44956</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>44957</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>44963</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>44964</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>44970</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>44971</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>44977</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>44978</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>44984</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>238</v>
+      </c>
+      <c r="F62">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>44985</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>44991</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>197</v>
+      </c>
+      <c r="F64">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>44992</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>44998</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>44999</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <f t="shared" si="0"/>
+        <v>45005</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <f t="shared" si="0"/>
+        <v>45006</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <f t="shared" si="0"/>
+        <v>45012</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>197</v>
+      </c>
+      <c r="F70">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <f t="shared" si="0"/>
+        <v>45013</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <f t="shared" ref="A72:A97" si="1">A70+7</f>
+        <v>45019</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>45020</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>45026</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>45027</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>45033</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>45034</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>45040</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>45041</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>45047</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>45048</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>45054</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>45055</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>45061</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>45062</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>45068</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>45069</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>45075</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>45076</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>45082</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>197</v>
+      </c>
+      <c r="F90">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>45083</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>45089</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>45090</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>45096</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>45097</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>45103</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>1112</v>
+      </c>
+      <c r="F96">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>45104</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97">
+        <v>1283</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
